--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rank" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1161,9 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1169,6 +1172,9 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1176,6 +1182,9 @@
       </c>
       <c r="B4" s="2">
         <v>3</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
